--- a/Sapphire Component Master.xlsx
+++ b/Sapphire Component Master.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\Excel_automation-master\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="1005" windowWidth="23370" windowHeight="15135"/>
+    <workbookView xWindow="7635" yWindow="1005" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,20 +40,20 @@
     <t>45(RH)</t>
   </si>
   <si>
-    <t>46 (LH)</t>
-  </si>
-  <si>
     <t>46(RH)</t>
   </si>
   <si>
     <t xml:space="preserve">Component ID </t>
+  </si>
+  <si>
+    <t>46(LH)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -107,11 +102,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -173,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -225,7 +223,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -419,7 +417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,19 +427,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -450,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -461,7 +459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -472,7 +470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -483,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -494,7 +492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -505,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -516,7 +514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -527,7 +525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -538,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -549,7 +547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -560,7 +558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>24</v>
       </c>
@@ -571,7 +569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -582,7 +580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -593,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -604,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -615,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -626,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -637,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -648,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -659,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -670,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -681,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -692,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -703,7 +701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -714,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -725,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -736,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -747,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -758,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -769,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -780,7 +778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -791,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -802,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -813,7 +811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -824,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -835,7 +833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -846,7 +844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -857,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -868,7 +866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -879,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -890,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -901,7 +899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -912,7 +910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -923,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -934,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -945,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -956,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -967,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -978,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -989,23 +987,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
       <c r="C51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -1016,8 +1020,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B54">
@@ -1027,8 +1031,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B55">
@@ -1038,9 +1042,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>4</v>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B56">
         <v>74.3</v>
@@ -1049,9 +1053,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>5</v>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B57">
         <v>74.3</v>

--- a/Sapphire Component Master.xlsx
+++ b/Sapphire Component Master.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Weight of the Component (Kg)</t>
   </si>
@@ -34,26 +34,32 @@
     <t>Cavities (no)</t>
   </si>
   <si>
-    <t>45(LH)</t>
-  </si>
-  <si>
-    <t>45(RH)</t>
-  </si>
-  <si>
-    <t>46(RH)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Component ID </t>
   </si>
   <si>
-    <t>46(LH)</t>
+    <t>45 rh</t>
+  </si>
+  <si>
+    <t>46 RH</t>
+  </si>
+  <si>
+    <t>46 LH</t>
+  </si>
+  <si>
+    <t>45 RH</t>
+  </si>
+  <si>
+    <t>45 LH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45 LH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -65,6 +71,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -111,6 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -425,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,7 +452,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1022,7 +1035,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>60</v>
@@ -1033,10 +1046,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B55">
-        <v>60</v>
+        <v>74.3</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1044,7 +1057,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B56">
         <v>74.3</v>
@@ -1055,16 +1068,53 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>74.3</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>